--- a/Fizica/lab3/Fizica4.xlsx
+++ b/Fizica/lab3/Fizica4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VITP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\costa\Desktop\Poli\Fizica\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0C937FA-4DF0-4F61-A0B3-D0771E80129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8090C413-DDDF-46C0-9CCB-A4545773736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC0ACEE9-7FDC-4092-A31D-F07A1B4F6051}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CC0ACEE9-7FDC-4092-A31D-F07A1B4F6051}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB3187D2-F2F1-4270-82D1-87CDC8123E43}" name="Table1" displayName="Table1" ref="G5:J10" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB3187D2-F2F1-4270-82D1-87CDC8123E43}" name="Table1" displayName="Table1" ref="A1:D6" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8DCA48A9-0566-4817-A8E3-4EE3759C390B}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{9B3721A9-8210-43C3-99DE-1B1E7552B3BB}" name="Column2"/>
@@ -423,108 +423,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF33958-081C-4BD1-86DA-849BE87A0AC8}">
-  <dimension ref="B5:J10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>18990</v>
+      </c>
+      <c r="C2">
+        <v>18167</v>
+      </c>
+      <c r="D2">
+        <v>13938</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>17670</v>
+      </c>
+      <c r="C3">
+        <v>16025</v>
+      </c>
+      <c r="D3">
+        <v>8848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>16250</v>
+      </c>
+      <c r="C4">
+        <v>14301</v>
+      </c>
+      <c r="D4">
+        <v>5494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>15143</v>
+      </c>
+      <c r="C5">
+        <v>13112</v>
+      </c>
+      <c r="D5">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
       <c r="B6">
-        <v>20323</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>18990</v>
-      </c>
-      <c r="I6">
-        <v>18167</v>
-      </c>
-      <c r="J6">
-        <v>13938</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>17670</v>
-      </c>
-      <c r="I7">
-        <v>16025</v>
-      </c>
-      <c r="J7">
-        <v>8848</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>287</v>
-      </c>
-      <c r="C8">
-        <v>527</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>16250</v>
-      </c>
-      <c r="I8">
-        <v>14301</v>
-      </c>
-      <c r="J8">
-        <v>5494</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>15143</v>
-      </c>
-      <c r="I9">
-        <v>13112</v>
-      </c>
-      <c r="J9">
-        <v>3455</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10">
         <v>14148</v>
       </c>
-      <c r="I10">
+      <c r="C6">
         <v>11969</v>
       </c>
-      <c r="J10">
+      <c r="D6">
         <v>2170</v>
       </c>
     </row>
